--- a/data/trans_orig/P70B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40AE6E33-F47F-49A6-B0A6-0EB15ACAC2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96719700-0414-4543-A09B-3BC173959DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06E599CC-4C54-4DF7-80F7-AC75EF063EB8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6B88795-0BED-45F4-A9CE-84413BF588AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
   <si>
     <t>Población según como se adapta su horario laboral a sus compromisos sociales y familiares fuera del trabajo en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>7,22%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -92,10 +92,10 @@
     <t>3,92%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>No muy bien</t>
@@ -104,28 +104,28 @@
     <t>14,3%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>14,92%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>Bastante bien</t>
@@ -134,28 +134,28 @@
     <t>66,47%</t>
   </si>
   <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>49,14%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>58,56%</t>
   </si>
   <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>Muy bien</t>
@@ -164,28 +164,28 @@
     <t>12,0%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>35,2%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
   </si>
   <si>
     <t>22,6%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,43 +197,43 @@
     <t>3,66%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>10,33%</t>
+    <t>10,3%</t>
   </si>
   <si>
     <t>18,67%</t>
@@ -242,64 +242,64 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>60,02%</t>
   </si>
   <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
   </si>
   <si>
     <t>61,69%</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
   </si>
   <si>
     <t>60,75%</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -308,7 +308,10 @@
     <t>2,97%</t>
   </si>
   <si>
-    <t>4,97%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>1,97%</t>
@@ -317,97 +320,97 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>8,5%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
   </si>
   <si>
     <t>66,02%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
   </si>
   <si>
     <t>64,62%</t>
   </si>
   <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
   </si>
   <si>
     <t>65,45%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -416,106 +419,106 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>8,86%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>60,61%</t>
   </si>
   <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>60,54%</t>
   </si>
   <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>24,54%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
   </si>
   <si>
     <t>25,1%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -524,202 +527,211 @@
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>11,42%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>6,47%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>8,06%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>11,87%</t>
   </si>
   <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>10,57%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
   </si>
   <si>
     <t>59,28%</t>
   </si>
   <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
   </si>
   <si>
     <t>60,35%</t>
   </si>
   <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8DEBA7-F121-4B32-B744-2001C90C073C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F4E3D5-6F50-481F-B909-D14C92AD4767}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1775,10 +1787,10 @@
         <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -1787,13 +1799,13 @@
         <v>8728</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -1802,13 +1814,13 @@
         <v>27484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1835,13 @@
         <v>76982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>74</v>
@@ -1838,13 +1850,13 @@
         <v>56884</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>135</v>
@@ -1853,13 +1865,13 @@
         <v>133865</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1886,13 @@
         <v>417466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>390</v>
@@ -1889,13 +1901,13 @@
         <v>285961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>738</v>
@@ -1904,13 +1916,13 @@
         <v>703427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1937,13 @@
         <v>119098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -1940,13 +1952,13 @@
         <v>90949</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>226</v>
@@ -1955,13 +1967,13 @@
         <v>210048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2029,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2041,13 @@
         <v>3194</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -2044,13 +2056,13 @@
         <v>8844</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -2059,13 +2071,13 @@
         <v>12039</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2092,13 @@
         <v>46833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -2095,13 +2107,13 @@
         <v>39553</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -2110,13 +2122,13 @@
         <v>86387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2143,13 @@
         <v>219897</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>250</v>
@@ -2146,13 +2158,13 @@
         <v>196375</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>448</v>
@@ -2161,13 +2173,13 @@
         <v>416273</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2194,13 @@
         <v>92877</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -2197,13 +2209,13 @@
         <v>79619</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
@@ -2212,13 +2224,13 @@
         <v>172496</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,7 +2286,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2286,13 +2298,13 @@
         <v>11965</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -2301,13 +2313,13 @@
         <v>19711</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -2316,13 +2328,13 @@
         <v>31676</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2349,13 @@
         <v>46504</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>62</v>
@@ -2352,13 +2364,13 @@
         <v>47796</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -2367,13 +2379,13 @@
         <v>94300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2400,13 @@
         <v>275836</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>342</v>
@@ -2403,13 +2415,13 @@
         <v>245767</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>607</v>
@@ -2418,13 +2430,13 @@
         <v>521603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2451,13 @@
         <v>160651</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>183</v>
@@ -2454,13 +2466,13 @@
         <v>149830</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>338</v>
@@ -2469,13 +2481,13 @@
         <v>310481</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2555,13 @@
         <v>48378</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -2558,13 +2570,13 @@
         <v>41045</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -2573,13 +2585,13 @@
         <v>89423</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2606,13 @@
         <v>217706</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>233</v>
@@ -2609,13 +2621,13 @@
         <v>182969</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>420</v>
@@ -2624,13 +2636,13 @@
         <v>400675</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2657,13 @@
         <v>1123472</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>1234</v>
@@ -2660,13 +2672,13 @@
         <v>890705</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>2260</v>
@@ -2675,13 +2687,13 @@
         <v>2014178</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2708,13 @@
         <v>445260</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>521</v>
@@ -2711,13 +2723,13 @@
         <v>387786</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>937</v>
@@ -2726,13 +2738,13 @@
         <v>833046</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2800,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96719700-0414-4543-A09B-3BC173959DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F314B3D-1C17-4B8A-B8DE-F3FAC8240E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6B88795-0BED-45F4-A9CE-84413BF588AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3DD936FD-6F6F-4422-83C6-F2D335BD40EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada bien</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,66%</t>
@@ -302,7 +302,7 @@
     <t>27,08%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>2,97%</t>
@@ -413,7 +413,7 @@
     <t>22,83%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -1146,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F4E3D5-6F50-481F-B909-D14C92AD4767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1EF5A2-AA35-4491-88B6-746FCE94E5F2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F314B3D-1C17-4B8A-B8DE-F3FAC8240E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24092425-965C-41CA-A6EB-36EA8E8BB39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3DD936FD-6F6F-4422-83C6-F2D335BD40EF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF953725-7401-4E27-BCAF-F2A5570BF1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
   <si>
     <t>Población según como se adapta su horario laboral a sus compromisos sociales y familiares fuera del trabajo en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -74,664 +74,652 @@
     <t>7,22%</t>
   </si>
   <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>No muy bien</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>Bastante bien</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>Muy bien</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>No muy bien</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>Bastante bien</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>Muy bien</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
+    <t>13,85%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>10,57%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>59,28%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
   </si>
   <si>
     <t>60,35%</t>
   </si>
   <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1146,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1EF5A2-AA35-4491-88B6-746FCE94E5F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628F3479-76F4-445C-9B89-C91B0B698D9E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1787,10 +1775,10 @@
         <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -1799,13 +1787,13 @@
         <v>8728</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -1814,13 +1802,13 @@
         <v>27484</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,13 +1823,13 @@
         <v>76982</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>74</v>
@@ -1850,13 +1838,13 @@
         <v>56884</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>135</v>
@@ -1865,13 +1853,13 @@
         <v>133865</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,13 +1874,13 @@
         <v>417466</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>390</v>
@@ -1901,13 +1889,13 @@
         <v>285961</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>738</v>
@@ -1916,13 +1904,13 @@
         <v>703427</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1925,13 @@
         <v>119098</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -1952,13 +1940,13 @@
         <v>90949</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>226</v>
@@ -1967,13 +1955,13 @@
         <v>210048</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2017,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2041,13 +2029,13 @@
         <v>3194</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -2056,13 +2044,13 @@
         <v>8844</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -2071,13 +2059,13 @@
         <v>12039</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2080,13 @@
         <v>46833</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -2107,13 +2095,13 @@
         <v>39553</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -2122,13 +2110,13 @@
         <v>86387</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2131,13 @@
         <v>219897</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>250</v>
@@ -2158,13 +2146,13 @@
         <v>196375</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>448</v>
@@ -2173,13 +2161,13 @@
         <v>416273</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2182,13 @@
         <v>92877</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -2209,13 +2197,13 @@
         <v>79619</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
@@ -2224,13 +2212,13 @@
         <v>172496</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,7 +2274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2298,13 +2286,13 @@
         <v>11965</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -2313,13 +2301,13 @@
         <v>19711</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -2328,13 +2316,13 @@
         <v>31676</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2337,13 @@
         <v>46504</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>62</v>
@@ -2364,13 +2352,13 @@
         <v>47796</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -2379,13 +2367,13 @@
         <v>94300</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2388,13 @@
         <v>275836</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>342</v>
@@ -2415,13 +2403,13 @@
         <v>245767</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>607</v>
@@ -2430,13 +2418,13 @@
         <v>521603</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2439,13 @@
         <v>160651</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>183</v>
@@ -2466,13 +2454,13 @@
         <v>149830</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>338</v>
@@ -2481,13 +2469,13 @@
         <v>310481</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2543,13 @@
         <v>48378</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -2570,13 +2558,13 @@
         <v>41045</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -2585,13 +2573,13 @@
         <v>89423</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2594,13 @@
         <v>217706</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>233</v>
@@ -2621,13 +2609,13 @@
         <v>182969</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="M30" s="7">
         <v>420</v>
@@ -2636,13 +2624,13 @@
         <v>400675</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2645,13 @@
         <v>1123472</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>1234</v>
@@ -2672,13 +2660,13 @@
         <v>890705</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>2260</v>
@@ -2687,13 +2675,13 @@
         <v>2014178</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2696,13 @@
         <v>445260</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>521</v>
@@ -2723,13 +2711,13 @@
         <v>387786</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>937</v>
@@ -2738,13 +2726,13 @@
         <v>833046</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2788,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24092425-965C-41CA-A6EB-36EA8E8BB39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CFFE6C-9438-4F25-BD6E-C2A7EF70C690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF953725-7401-4E27-BCAF-F2A5570BF1CD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B60F3754-80E0-458E-8CB8-2D954550D8DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
   <si>
     <t>Población según como se adapta su horario laboral a sus compromisos sociales y familiares fuera del trabajo en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -65,661 +65,556 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nada bien</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>No muy bien</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>Bastante bien</t>
   </si>
   <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
   </si>
   <si>
     <t>Muy bien</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>23,06%</t>
   </si>
   <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>28,85%</t>
   </si>
   <si>
-    <t>Capitales</t>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,8 +1029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628F3479-76F4-445C-9B89-C91B0B698D9E}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10144834-15B4-4FB0-9A8D-36A54E45CF59}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1252,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>3758</v>
+        <v>14025</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1267,10 +1162,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3507</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1282,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>3758</v>
+        <v>17533</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1303,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>7443</v>
+        <v>46149</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1318,10 +1213,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I5" s="7">
-        <v>6850</v>
+        <v>35997</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1333,10 +1228,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="N5" s="7">
-        <v>14293</v>
+        <v>82146</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1354,10 +1249,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="D6" s="7">
-        <v>34591</v>
+        <v>201320</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1369,10 +1264,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="I6" s="7">
-        <v>21500</v>
+        <v>152040</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1384,10 +1279,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>75</v>
+        <v>467</v>
       </c>
       <c r="N6" s="7">
-        <v>56092</v>
+        <v>353360</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1405,10 +1300,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7">
-        <v>6247</v>
+        <v>72814</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1420,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="I7" s="7">
-        <v>15400</v>
+        <v>64410</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1435,10 +1330,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="N7" s="7">
-        <v>21647</v>
+        <v>137224</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1456,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="D8" s="7">
-        <v>52039</v>
+        <v>334309</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1471,10 +1366,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>69</v>
+        <v>409</v>
       </c>
       <c r="I8" s="7">
-        <v>43750</v>
+        <v>255954</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1486,10 +1381,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>120</v>
+        <v>748</v>
       </c>
       <c r="N8" s="7">
-        <v>95790</v>
+        <v>590263</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1509,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>10704</v>
+        <v>18088</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1524,10 +1419,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7">
-        <v>3762</v>
+        <v>7967</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1539,10 +1434,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N9" s="7">
-        <v>14466</v>
+        <v>26055</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1560,10 +1455,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>39944</v>
+        <v>76732</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1575,10 +1470,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>31886</v>
+        <v>51862</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1590,10 +1485,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="N10" s="7">
-        <v>71830</v>
+        <v>128594</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1611,10 +1506,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>181</v>
+        <v>348</v>
       </c>
       <c r="D11" s="7">
-        <v>175682</v>
+        <v>594525</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1626,10 +1521,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>211</v>
+        <v>390</v>
       </c>
       <c r="I11" s="7">
-        <v>141102</v>
+        <v>257220</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1641,10 +1536,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>392</v>
+        <v>738</v>
       </c>
       <c r="N11" s="7">
-        <v>316784</v>
+        <v>851745</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1662,10 +1557,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D12" s="7">
-        <v>66387</v>
+        <v>116013</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1677,10 +1572,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="I12" s="7">
-        <v>51988</v>
+        <v>83842</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1689,22 +1584,22 @@
         <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="7">
+        <v>226</v>
+      </c>
+      <c r="N12" s="7">
+        <v>199855</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="7">
-        <v>143</v>
-      </c>
-      <c r="N12" s="7">
-        <v>118374</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>288</v>
+        <v>529</v>
       </c>
       <c r="D13" s="7">
-        <v>292717</v>
+        <v>805358</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1728,10 +1623,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>340</v>
+        <v>597</v>
       </c>
       <c r="I13" s="7">
-        <v>228737</v>
+        <v>400891</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1743,10 +1638,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>628</v>
+        <v>1126</v>
       </c>
       <c r="N13" s="7">
-        <v>521454</v>
+        <v>1206249</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1760,31 +1655,31 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>18756</v>
+        <v>3092</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>8728</v>
+        <v>8081</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1796,10 +1691,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>27484</v>
+        <v>11173</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1817,10 +1712,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7">
-        <v>76982</v>
+        <v>45239</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -1832,10 +1727,10 @@
         <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I15" s="7">
-        <v>56884</v>
+        <v>35850</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -1847,10 +1742,10 @@
         <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="N15" s="7">
-        <v>133865</v>
+        <v>81089</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -1868,10 +1763,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>348</v>
+        <v>198</v>
       </c>
       <c r="D16" s="7">
-        <v>417466</v>
+        <v>212075</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -1883,10 +1778,10 @@
         <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="I16" s="7">
-        <v>285961</v>
+        <v>204982</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -1898,10 +1793,10 @@
         <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>738</v>
+        <v>448</v>
       </c>
       <c r="N16" s="7">
-        <v>703427</v>
+        <v>417057</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -1919,10 +1814,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>119098</v>
+        <v>91141</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -1934,10 +1829,10 @@
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I17" s="7">
-        <v>90949</v>
+        <v>74614</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -1949,10 +1844,10 @@
         <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="N17" s="7">
-        <v>210048</v>
+        <v>165755</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -1970,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>529</v>
+        <v>327</v>
       </c>
       <c r="D18" s="7">
-        <v>632302</v>
+        <v>351546</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1985,10 +1880,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>597</v>
+        <v>424</v>
       </c>
       <c r="I18" s="7">
-        <v>442522</v>
+        <v>323528</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2000,10 +1895,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>1126</v>
+        <v>751</v>
       </c>
       <c r="N18" s="7">
-        <v>1074824</v>
+        <v>675074</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2023,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>3194</v>
+        <v>11052</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>125</v>
@@ -2038,10 +1933,10 @@
         <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>8844</v>
+        <v>16953</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>128</v>
@@ -2053,16 +1948,16 @@
         <v>130</v>
       </c>
       <c r="M19" s="7">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N19" s="7">
-        <v>12039</v>
+        <v>28005</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>132</v>
@@ -2074,10 +1969,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7">
-        <v>46833</v>
+        <v>44755</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>133</v>
@@ -2089,10 +1984,10 @@
         <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I20" s="7">
-        <v>39553</v>
+        <v>44073</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>136</v>
@@ -2104,10 +1999,10 @@
         <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="N20" s="7">
-        <v>86387</v>
+        <v>88828</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
@@ -2125,10 +2020,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="D21" s="7">
-        <v>219897</v>
+        <v>259320</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>142</v>
@@ -2140,10 +2035,10 @@
         <v>144</v>
       </c>
       <c r="H21" s="7">
-        <v>250</v>
+        <v>342</v>
       </c>
       <c r="I21" s="7">
-        <v>196375</v>
+        <v>224480</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>145</v>
@@ -2155,10 +2050,10 @@
         <v>147</v>
       </c>
       <c r="M21" s="7">
-        <v>448</v>
+        <v>607</v>
       </c>
       <c r="N21" s="7">
-        <v>416273</v>
+        <v>483800</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>148</v>
@@ -2176,10 +2071,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="D22" s="7">
-        <v>92877</v>
+        <v>157075</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>151</v>
@@ -2191,10 +2086,10 @@
         <v>153</v>
       </c>
       <c r="H22" s="7">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="I22" s="7">
-        <v>79619</v>
+        <v>196082</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>154</v>
@@ -2206,10 +2101,10 @@
         <v>156</v>
       </c>
       <c r="M22" s="7">
-        <v>204</v>
+        <v>338</v>
       </c>
       <c r="N22" s="7">
-        <v>172496</v>
+        <v>353158</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>157</v>
@@ -2227,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>327</v>
+        <v>479</v>
       </c>
       <c r="D23" s="7">
-        <v>362802</v>
+        <v>472203</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2242,10 +2137,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>424</v>
+        <v>605</v>
       </c>
       <c r="I23" s="7">
-        <v>324391</v>
+        <v>481588</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2257,10 +2152,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>751</v>
+        <v>1084</v>
       </c>
       <c r="N23" s="7">
-        <v>687194</v>
+        <v>953791</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2274,55 +2169,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7">
-        <v>11965</v>
+        <v>46258</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>47</v>
+      </c>
+      <c r="I24" s="7">
+        <v>36509</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="7">
+      <c r="M24" s="7">
+        <v>92</v>
+      </c>
+      <c r="N24" s="7">
+        <v>82767</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="7">
-        <v>19711</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="M24" s="7">
-        <v>32</v>
-      </c>
-      <c r="N24" s="7">
-        <v>31676</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,49 +2226,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="D25" s="7">
-        <v>46504</v>
+        <v>212874</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="7">
+        <v>233</v>
+      </c>
+      <c r="I25" s="7">
+        <v>167782</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="7">
-        <v>62</v>
-      </c>
-      <c r="I25" s="7">
-        <v>47796</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>420</v>
+      </c>
+      <c r="N25" s="7">
+        <v>380657</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="M25" s="7">
-        <v>107</v>
-      </c>
-      <c r="N25" s="7">
-        <v>94300</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2277,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>265</v>
+        <v>1026</v>
       </c>
       <c r="D26" s="7">
-        <v>275836</v>
+        <v>1267240</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1234</v>
+      </c>
+      <c r="I26" s="7">
+        <v>838722</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="7">
-        <v>342</v>
-      </c>
-      <c r="I26" s="7">
-        <v>245767</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>2260</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2105962</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M26" s="7">
-        <v>607</v>
-      </c>
-      <c r="N26" s="7">
-        <v>521603</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,49 +2328,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>155</v>
+        <v>416</v>
       </c>
       <c r="D27" s="7">
-        <v>160651</v>
+        <v>437044</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>521</v>
+      </c>
+      <c r="I27" s="7">
+        <v>418948</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="7">
-        <v>183</v>
-      </c>
-      <c r="I27" s="7">
-        <v>149830</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>937</v>
+      </c>
+      <c r="N27" s="7">
+        <v>855992</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M27" s="7">
-        <v>338</v>
-      </c>
-      <c r="N27" s="7">
-        <v>310481</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>479</v>
+        <v>1674</v>
       </c>
       <c r="D28" s="7">
-        <v>494956</v>
+        <v>1963416</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2499,10 +2394,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>605</v>
+        <v>2035</v>
       </c>
       <c r="I28" s="7">
-        <v>463104</v>
+        <v>1461961</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2514,10 +2409,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>1084</v>
+        <v>3709</v>
       </c>
       <c r="N28" s="7">
-        <v>958060</v>
+        <v>3425377</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2530,273 +2425,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>45</v>
-      </c>
-      <c r="D29" s="7">
-        <v>48378</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="7">
-        <v>47</v>
-      </c>
-      <c r="I29" s="7">
-        <v>41045</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M29" s="7">
-        <v>92</v>
-      </c>
-      <c r="N29" s="7">
-        <v>89423</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>187</v>
-      </c>
-      <c r="D30" s="7">
-        <v>217706</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H30" s="7">
-        <v>233</v>
-      </c>
-      <c r="I30" s="7">
-        <v>182969</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="7">
-        <v>420</v>
-      </c>
-      <c r="N30" s="7">
-        <v>400675</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1026</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1123472</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1234</v>
-      </c>
-      <c r="I31" s="7">
-        <v>890705</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M31" s="7">
-        <v>2260</v>
-      </c>
-      <c r="N31" s="7">
-        <v>2014178</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>416</v>
-      </c>
-      <c r="D32" s="7">
-        <v>445260</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H32" s="7">
-        <v>521</v>
-      </c>
-      <c r="I32" s="7">
-        <v>387786</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M32" s="7">
-        <v>937</v>
-      </c>
-      <c r="N32" s="7">
-        <v>833046</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1674</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1834816</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2035</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1502505</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>3709</v>
-      </c>
-      <c r="N33" s="7">
-        <v>3337322</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>228</v>
+      <c r="A29" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
